--- a/New Management/Purchase Price.xlsx
+++ b/New Management/Purchase Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5128f11f6d6a2fd4/Buckchi/New Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_B33EBEE1637C71110AA27BC076729C18833385C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13352459-338A-453C-AF33-26376E4DFB05}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F3807-3A1D-48C9-971B-AEA5EE41C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
   <si>
     <t>Product</t>
   </si>
@@ -162,112 +162,127 @@
     <t>White Panda 180X70cm</t>
   </si>
   <si>
-    <t>0018</t>
-  </si>
-  <si>
-    <t>0017</t>
-  </si>
-  <si>
-    <t>1059</t>
-  </si>
-  <si>
-    <t>0182</t>
-  </si>
-  <si>
-    <t>0496</t>
-  </si>
-  <si>
-    <t>0975</t>
-  </si>
-  <si>
-    <t>0184</t>
-  </si>
-  <si>
-    <t>0185</t>
-  </si>
-  <si>
-    <t>0186</t>
-  </si>
-  <si>
-    <t>0187</t>
-  </si>
-  <si>
-    <t>0188</t>
-  </si>
-  <si>
-    <t>0189</t>
-  </si>
-  <si>
-    <t>0912</t>
-  </si>
-  <si>
-    <t>0913</t>
-  </si>
-  <si>
-    <t>0914</t>
-  </si>
-  <si>
-    <t>0915</t>
-  </si>
-  <si>
-    <t>0916</t>
-  </si>
-  <si>
-    <t>0426</t>
-  </si>
-  <si>
-    <t>0429</t>
-  </si>
-  <si>
-    <t>0441</t>
-  </si>
-  <si>
-    <t>0424</t>
-  </si>
-  <si>
-    <t>0427</t>
-  </si>
-  <si>
-    <t>0430</t>
-  </si>
-  <si>
-    <t>0439</t>
-  </si>
-  <si>
-    <t>0442</t>
-  </si>
-  <si>
-    <t>0445</t>
-  </si>
-  <si>
-    <t>0425</t>
-  </si>
-  <si>
-    <t>0428</t>
-  </si>
-  <si>
-    <t>0431</t>
-  </si>
-  <si>
-    <t>0440</t>
-  </si>
-  <si>
-    <t>0443</t>
-  </si>
-  <si>
-    <t>0446</t>
-  </si>
-  <si>
     <t>Pressure Gun 24v Battery (1pc) 0997</t>
-  </si>
-  <si>
-    <t>0997</t>
   </si>
   <si>
     <t>Executive Chair Wheel 1pc</t>
   </si>
   <si>
-    <t>0998</t>
+    <t>Electric Drill</t>
+  </si>
+  <si>
+    <t>Executive Black Chair</t>
+  </si>
+  <si>
+    <t>Executive Grey Chair</t>
+  </si>
+  <si>
+    <t>Petrol Chainsaw</t>
+  </si>
+  <si>
+    <t>Coffee Table Black</t>
+  </si>
+  <si>
+    <t>Coffee Table White</t>
+  </si>
+  <si>
+    <t>Spray Gun</t>
+  </si>
+  <si>
+    <t>Angle Grinder</t>
+  </si>
+  <si>
+    <t>8Led Usb Light Cool</t>
+  </si>
+  <si>
+    <t>8Led Usb Light Warm</t>
+  </si>
+  <si>
+    <t>2 head Battery Light</t>
+  </si>
+  <si>
+    <t>Recessed Sensor Light</t>
+  </si>
+  <si>
+    <t>Sofa Set Beige</t>
+  </si>
+  <si>
+    <t>Sofa Set Black</t>
+  </si>
+  <si>
+    <t>Sofa Set Dark Blue</t>
+  </si>
+  <si>
+    <t>LED Work Light</t>
+  </si>
+  <si>
+    <t>LED Torch Light</t>
+  </si>
+  <si>
+    <t>Baby Seat Pink</t>
+  </si>
+  <si>
+    <t>Baby Seat Blue</t>
+  </si>
+  <si>
+    <t>Flood Light</t>
+  </si>
+  <si>
+    <t>Pendent Light Black</t>
+  </si>
+  <si>
+    <t>Pendent Light White</t>
+  </si>
+  <si>
+    <t>Pendent Light Bulb</t>
+  </si>
+  <si>
+    <t>Pressure Washer Gun</t>
+  </si>
+  <si>
+    <t>Cloud Light</t>
+  </si>
+  <si>
+    <t>Air Bed</t>
+  </si>
+  <si>
+    <t>Car Cleaner</t>
+  </si>
+  <si>
+    <t>Folding Toaster</t>
+  </si>
+  <si>
+    <t>Executive Chair</t>
+  </si>
+  <si>
+    <t>Coffee table</t>
+  </si>
+  <si>
+    <t>8 LED USB Light</t>
+  </si>
+  <si>
+    <t>2 Head Battery Light</t>
+  </si>
+  <si>
+    <t>Sofa set</t>
+  </si>
+  <si>
+    <t>LED Work</t>
+  </si>
+  <si>
+    <t>LED Torch</t>
+  </si>
+  <si>
+    <t>Baby Seat</t>
+  </si>
+  <si>
+    <t>Pendent Light</t>
+  </si>
+  <si>
+    <t>Test 0001</t>
+  </si>
+  <si>
+    <t>Test 0002</t>
   </si>
 </sst>
 </file>
@@ -283,6 +298,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,12 +324,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -369,31 +385,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -401,17 +418,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B55F3E33-091C-4671-B2D4-C35470FF0399}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,15 +727,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18786"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" style="13" customWidth="1"/>
@@ -741,8 +782,8 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
+      <c r="F2" s="15">
+        <v>18</v>
       </c>
       <c r="G2" s="12">
         <v>45625</v>
@@ -764,8 +805,8 @@
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>42</v>
+      <c r="F3" s="15">
+        <v>17</v>
       </c>
       <c r="G3" s="12">
         <v>45625</v>
@@ -787,8 +828,8 @@
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>43</v>
+      <c r="F4" s="15">
+        <v>1059</v>
       </c>
       <c r="G4" s="12">
         <v>45625</v>
@@ -810,7 +851,7 @@
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="16">
         <v>1061</v>
       </c>
       <c r="G5" s="12">
@@ -833,8 +874,8 @@
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>44</v>
+      <c r="F6" s="15">
+        <v>182</v>
       </c>
       <c r="G6" s="12">
         <v>45625</v>
@@ -856,8 +897,8 @@
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>45</v>
+      <c r="F7" s="15">
+        <v>496</v>
       </c>
       <c r="G7" s="12">
         <v>45625</v>
@@ -879,8 +920,8 @@
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>46</v>
+      <c r="F8" s="15">
+        <v>975</v>
       </c>
       <c r="G8" s="12">
         <v>45625</v>
@@ -902,8 +943,8 @@
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>47</v>
+      <c r="F9" s="15">
+        <v>184</v>
       </c>
       <c r="G9" s="12">
         <v>45625</v>
@@ -925,8 +966,8 @@
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>48</v>
+      <c r="F10" s="15">
+        <v>185</v>
       </c>
       <c r="G10" s="12">
         <v>45625</v>
@@ -948,8 +989,8 @@
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>49</v>
+      <c r="F11" s="15">
+        <v>186</v>
       </c>
       <c r="G11" s="12">
         <v>45625</v>
@@ -971,8 +1012,8 @@
       <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>50</v>
+      <c r="F12" s="15">
+        <v>187</v>
       </c>
       <c r="G12" s="12">
         <v>45625</v>
@@ -994,8 +1035,8 @@
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>51</v>
+      <c r="F13" s="15">
+        <v>188</v>
       </c>
       <c r="G13" s="12">
         <v>45625</v>
@@ -1017,8 +1058,8 @@
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>52</v>
+      <c r="F14" s="15">
+        <v>189</v>
       </c>
       <c r="G14" s="12">
         <v>45625</v>
@@ -1040,8 +1081,8 @@
       <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>53</v>
+      <c r="F15" s="15">
+        <v>912</v>
       </c>
       <c r="G15" s="12">
         <v>45625</v>
@@ -1063,8 +1104,8 @@
       <c r="E16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>54</v>
+      <c r="F16" s="15">
+        <v>913</v>
       </c>
       <c r="G16" s="12">
         <v>45625</v>
@@ -1086,8 +1127,8 @@
       <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>55</v>
+      <c r="F17" s="15">
+        <v>914</v>
       </c>
       <c r="G17" s="12">
         <v>45625</v>
@@ -1109,8 +1150,8 @@
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>56</v>
+      <c r="F18" s="15">
+        <v>915</v>
       </c>
       <c r="G18" s="12">
         <v>45625</v>
@@ -1132,8 +1173,8 @@
       <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>57</v>
+      <c r="F19" s="15">
+        <v>916</v>
       </c>
       <c r="G19" s="12">
         <v>45625</v>
@@ -1155,8 +1196,8 @@
       <c r="E20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>58</v>
+      <c r="F20" s="15">
+        <v>426</v>
       </c>
       <c r="G20" s="12">
         <v>45625</v>
@@ -1178,8 +1219,8 @@
       <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>59</v>
+      <c r="F21" s="15">
+        <v>429</v>
       </c>
       <c r="G21" s="12">
         <v>45625</v>
@@ -1201,8 +1242,8 @@
       <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>60</v>
+      <c r="F22" s="15">
+        <v>441</v>
       </c>
       <c r="G22" s="12">
         <v>45625</v>
@@ -1224,8 +1265,8 @@
       <c r="E23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>61</v>
+      <c r="F23" s="15">
+        <v>424</v>
       </c>
       <c r="G23" s="12">
         <v>45625</v>
@@ -1247,8 +1288,8 @@
       <c r="E24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>62</v>
+      <c r="F24" s="15">
+        <v>427</v>
       </c>
       <c r="G24" s="12">
         <v>45625</v>
@@ -1270,8 +1311,8 @@
       <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>63</v>
+      <c r="F25" s="15">
+        <v>430</v>
       </c>
       <c r="G25" s="12">
         <v>45625</v>
@@ -1293,8 +1334,8 @@
       <c r="E26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>64</v>
+      <c r="F26" s="15">
+        <v>439</v>
       </c>
       <c r="G26" s="12">
         <v>45625</v>
@@ -1316,8 +1357,8 @@
       <c r="E27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>65</v>
+      <c r="F27" s="15">
+        <v>442</v>
       </c>
       <c r="G27" s="12">
         <v>45625</v>
@@ -1339,8 +1380,8 @@
       <c r="E28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>66</v>
+      <c r="F28" s="15">
+        <v>445</v>
       </c>
       <c r="G28" s="12">
         <v>45625</v>
@@ -1362,8 +1403,8 @@
       <c r="E29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>67</v>
+      <c r="F29" s="15">
+        <v>425</v>
       </c>
       <c r="G29" s="12">
         <v>45625</v>
@@ -1385,8 +1426,8 @@
       <c r="E30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>68</v>
+      <c r="F30" s="15">
+        <v>428</v>
       </c>
       <c r="G30" s="12">
         <v>45625</v>
@@ -1408,8 +1449,8 @@
       <c r="E31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>69</v>
+      <c r="F31" s="15">
+        <v>431</v>
       </c>
       <c r="G31" s="12">
         <v>45625</v>
@@ -1431,8 +1472,8 @@
       <c r="E32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>70</v>
+      <c r="F32" s="15">
+        <v>440</v>
       </c>
       <c r="G32" s="12">
         <v>45625</v>
@@ -1454,8 +1495,8 @@
       <c r="E33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>71</v>
+      <c r="F33" s="15">
+        <v>443</v>
       </c>
       <c r="G33" s="12">
         <v>45625</v>
@@ -1477,8 +1518,8 @@
       <c r="E34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>72</v>
+      <c r="F34" s="15">
+        <v>446</v>
       </c>
       <c r="G34" s="12">
         <v>45625</v>
@@ -1486,22 +1527,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1">
         <v>25</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <v>0.1</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>74</v>
+      <c r="F35" s="17">
+        <v>997</v>
       </c>
       <c r="G35" s="12">
         <v>45625</v>
@@ -1509,138 +1550,586 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
         <v>25</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="14">
         <v>0.1</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>76</v>
+      <c r="F36" s="17">
+        <v>998</v>
       </c>
       <c r="G36" s="12">
         <v>45625</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="B37" s="9"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="21">
+        <v>400</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="22">
+        <v>250601000001</v>
+      </c>
+      <c r="G37" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="B38" s="17"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="21">
+        <v>157</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="22">
+        <v>250601000002</v>
+      </c>
+      <c r="G38" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="B39" s="17"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="21">
+        <v>28</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="22">
+        <v>250601000003</v>
+      </c>
+      <c r="G39" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="B40" s="17"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="21">
+        <v>156</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="22">
+        <v>250601000004</v>
+      </c>
+      <c r="G40" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="B41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="21">
+        <v>80</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="22">
+        <v>250601000005</v>
+      </c>
+      <c r="G41" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="B42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="21">
+        <v>200</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="22">
+        <v>250601000006</v>
+      </c>
+      <c r="G42" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="B43" s="9"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="21">
+        <v>300</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="22">
+        <v>250601000007</v>
+      </c>
+      <c r="G43" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="B44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="21">
+        <v>300</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="22">
+        <v>250601000008</v>
+      </c>
+      <c r="G44" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="B45" s="9"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="21">
+        <v>700</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="22">
+        <v>250601000009</v>
+      </c>
+      <c r="G45" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="B46" s="9"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="21">
+        <v>300</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="22">
+        <v>250601000010</v>
+      </c>
+      <c r="G46" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="9"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="21">
+        <v>204</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="22">
+        <v>250601000011</v>
+      </c>
+      <c r="G47" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="B48" s="9"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="9"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="9"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="9"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="9"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="9"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="9"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="9"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="9"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="9"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="9"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="9"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="9"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="9"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="9"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="9"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="9"/>
-      <c r="F64" s="10"/>
+      <c r="A48" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="21">
+        <v>300</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="22">
+        <v>250601000012</v>
+      </c>
+      <c r="G48" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="21">
+        <v>180</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="22">
+        <v>250601000013</v>
+      </c>
+      <c r="G49" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="21">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="22">
+        <v>250601000014</v>
+      </c>
+      <c r="G50" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="21">
+        <v>10</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="22">
+        <v>250601000015</v>
+      </c>
+      <c r="G51" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="21">
+        <v>100</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="22">
+        <v>250601000016</v>
+      </c>
+      <c r="G52" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="21">
+        <v>100</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="22">
+        <v>250601000017</v>
+      </c>
+      <c r="G53" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="21">
+        <v>108</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="22">
+        <v>250601000018</v>
+      </c>
+      <c r="G54" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="21">
+        <v>108</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="22">
+        <v>250601000019</v>
+      </c>
+      <c r="G55" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="21">
+        <v>306</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="22">
+        <v>250601000020</v>
+      </c>
+      <c r="G56" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="21">
+        <v>250</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="22">
+        <v>250601000021</v>
+      </c>
+      <c r="G57" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="21">
+        <v>20</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="22">
+        <v>250601000022</v>
+      </c>
+      <c r="G58" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="21">
+        <v>1620</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="22">
+        <v>250601000023</v>
+      </c>
+      <c r="G59" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="21">
+        <v>303</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="22">
+        <v>250601000024</v>
+      </c>
+      <c r="G60" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="21">
+        <v>50</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="22">
+        <v>250601000025</v>
+      </c>
+      <c r="G61" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="21">
+        <v>5</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="21">
+        <v>200</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="23">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="21">
+        <v>50</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="22">
+        <v>21</v>
+      </c>
+      <c r="G64" s="23">
+        <v>45833</v>
+      </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="9"/>

--- a/New Management/Purchase Price.xlsx
+++ b/New Management/Purchase Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF71C640-C66F-49EE-A9EA-B606E91F76FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA55738-F81A-42A0-9BA3-4DE89C26ABB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,8 +184,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -224,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -247,27 +248,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,21 +273,24 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -582,7 +571,7 @@
   <dimension ref="A1:G18751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A2:XFD36"/>
+      <selection activeCell="F29" sqref="F27:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -627,8 +616,11 @@
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>400</v>
+      </c>
+      <c r="D2" s="13">
+        <v>10.9201946875</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
@@ -644,11 +636,14 @@
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>157</v>
+      </c>
+      <c r="D3" s="13">
+        <v>52.381576101910831</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
@@ -664,11 +659,14 @@
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>28</v>
+      </c>
+      <c r="D4" s="13">
+        <v>50.317764000000011</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>7</v>
@@ -687,8 +685,11 @@
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>156</v>
+      </c>
+      <c r="D5" s="13">
+        <v>30.0133425</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>7</v>
@@ -704,11 +705,14 @@
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>80</v>
+      </c>
+      <c r="D6" s="13">
+        <v>14.268840000000001</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
@@ -724,11 +728,14 @@
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>200</v>
+      </c>
+      <c r="D7" s="13">
+        <v>14.268840000000001</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
@@ -747,8 +754,11 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>300</v>
+      </c>
+      <c r="D8" s="13">
+        <v>4.6320688499999996</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>7</v>
@@ -767,8 +777,11 @@
       <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>300</v>
+      </c>
+      <c r="D9" s="13">
+        <v>6.0365905</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>7</v>
@@ -784,11 +797,14 @@
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>700</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.68118809999999996</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>7</v>
@@ -804,11 +820,14 @@
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>300</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.68118810000000007</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>7</v>
@@ -824,11 +843,14 @@
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>204</v>
+      </c>
+      <c r="D12" s="13">
+        <v>8.2334482352941176</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>7</v>
@@ -847,8 +869,11 @@
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>300</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1.9568988266666667</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>7</v>
@@ -864,11 +889,14 @@
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>180</v>
+      </c>
+      <c r="D14" s="13">
+        <v>9.0723688888888887</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>7</v>
@@ -884,11 +912,14 @@
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>10</v>
+      </c>
+      <c r="D15" s="13">
+        <v>8.593980000000002</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>7</v>
@@ -904,11 +935,14 @@
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>10</v>
+      </c>
+      <c r="D16" s="13">
+        <v>8.593980000000002</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>7</v>
@@ -924,11 +958,14 @@
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>100</v>
+      </c>
+      <c r="D17" s="13">
+        <v>12.426486000000002</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>7</v>
@@ -944,11 +981,14 @@
       <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>100</v>
+      </c>
+      <c r="D18" s="13">
+        <v>9.8479259999999993</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
@@ -964,11 +1004,14 @@
       <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>108</v>
+      </c>
+      <c r="D19" s="13">
+        <v>5.8345080000000005</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>7</v>
@@ -984,11 +1027,14 @@
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>108</v>
+      </c>
+      <c r="D20" s="13">
+        <v>5.8345080000000005</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>7</v>
@@ -1004,11 +1050,14 @@
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>306</v>
+      </c>
+      <c r="D21" s="13">
+        <v>6.6676166666666656</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>7</v>
@@ -1024,11 +1073,14 @@
       <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>250</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3.6335799999999998</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>7</v>
@@ -1044,11 +1096,14 @@
       <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>20</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3.135732</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>7</v>
@@ -1064,11 +1119,14 @@
       <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>1620</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.81687811358024687</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>7</v>
@@ -1084,11 +1142,14 @@
       <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>303</v>
+      </c>
+      <c r="D25" s="13">
+        <v>11.367684430693069</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>7</v>
@@ -1104,11 +1165,14 @@
       <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>50</v>
+      </c>
+      <c r="D26" s="13">
+        <v>13.7036528</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>7</v>
@@ -1124,11 +1188,14 @@
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>5</v>
+      </c>
+      <c r="D27" s="13">
+        <v>13.927280000000001</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>7</v>
@@ -1144,11 +1211,14 @@
       <c r="A28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>200</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1.2888645824</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>7</v>
@@ -1164,11 +1234,14 @@
       <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>50</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1.7925992800000001</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>7</v>

--- a/New Management/Purchase Price.xlsx
+++ b/New Management/Purchase Price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA55738-F81A-42A0-9BA3-4DE89C26ABB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{863ED26F-E7EF-4B6F-949A-B7FE858B3007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -279,7 +279,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -571,7 +571,7 @@
   <dimension ref="A1:G18751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F27:F29"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1238,7 +1238,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="12">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D29" s="13">
         <v>1.7925992800000001</v>

--- a/New Management/Purchase Price.xlsx
+++ b/New Management/Purchase Price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5128f11f6d6a2fd4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{863ED26F-E7EF-4B6F-949A-B7FE858B3007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{553BD805-9887-4E6C-87D0-2391D0924D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>Product</t>
   </si>
@@ -179,6 +179,75 @@
   <si>
     <t>Test 0002</t>
   </si>
+  <si>
+    <t>Mini Screwdriver</t>
+  </si>
+  <si>
+    <t>Motion Sensor Bulb</t>
+  </si>
+  <si>
+    <t>Wall Lamp Black</t>
+  </si>
+  <si>
+    <t>Wall Lamp White</t>
+  </si>
+  <si>
+    <t>58cc Chainsaw</t>
+  </si>
+  <si>
+    <t>12L Oven</t>
+  </si>
+  <si>
+    <t>3in1 Oven</t>
+  </si>
+  <si>
+    <t>Saw Blade</t>
+  </si>
+  <si>
+    <t>Dog Leash Black</t>
+  </si>
+  <si>
+    <t>Dog Leash Blue</t>
+  </si>
+  <si>
+    <t>Dog Leash Green</t>
+  </si>
+  <si>
+    <t>Dog Leash Pink</t>
+  </si>
+  <si>
+    <t>Dog Leash Red</t>
+  </si>
+  <si>
+    <t>Black PU Gloves</t>
+  </si>
+  <si>
+    <t>Red Nitrile Gloves</t>
+  </si>
+  <si>
+    <t>Red Latex Gloves</t>
+  </si>
+  <si>
+    <t>Grey Resistance Gloves</t>
+  </si>
+  <si>
+    <t>12L Oven White</t>
+  </si>
+  <si>
+    <t>Gear Hanger</t>
+  </si>
+  <si>
+    <t>Wall Lamp</t>
+  </si>
+  <si>
+    <t>Dog Leash</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
 </sst>
 </file>
 
@@ -188,12 +257,19 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,12 +293,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -249,53 +331,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B55F3E33-091C-4671-B2D4-C35470FF0399}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{157FD3DB-C67C-4EC0-9633-7EAB71254741}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18751"/>
+  <dimension ref="A1:G18752"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -581,7 +680,7 @@
     <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14" style="10" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
@@ -616,13 +715,13 @@
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12">
-        <v>400</v>
+      <c r="C2" s="20">
+        <v>32</v>
       </c>
       <c r="D2" s="13">
         <v>10.9201946875</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="14">
@@ -640,12 +739,12 @@
         <v>36</v>
       </c>
       <c r="C3" s="12">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D3" s="13">
         <v>52.381576101910831</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="14">
@@ -663,12 +762,12 @@
         <v>36</v>
       </c>
       <c r="C4" s="12">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <v>50.317764000000011</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="14">
@@ -686,12 +785,12 @@
         <v>11</v>
       </c>
       <c r="C5" s="12">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13">
         <v>30.0133425</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="14">
@@ -709,12 +808,12 @@
         <v>37</v>
       </c>
       <c r="C6" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D6" s="13">
         <v>14.268840000000001</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="14">
@@ -732,12 +831,12 @@
         <v>37</v>
       </c>
       <c r="C7" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13">
         <v>14.268840000000001</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="14">
@@ -754,13 +853,13 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12">
-        <v>300</v>
+      <c r="C8" s="20">
+        <v>202</v>
       </c>
       <c r="D8" s="13">
         <v>4.6320688499999996</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="14">
@@ -778,12 +877,12 @@
         <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D9" s="13">
         <v>6.0365905</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="14">
@@ -801,12 +900,12 @@
         <v>38</v>
       </c>
       <c r="C10" s="12">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D10" s="13">
         <v>0.68118809999999996</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="14">
@@ -824,12 +923,12 @@
         <v>38</v>
       </c>
       <c r="C11" s="12">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D11" s="13">
         <v>0.68118810000000007</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="14">
@@ -846,13 +945,13 @@
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="12">
-        <v>204</v>
+      <c r="C12" s="20">
+        <v>128</v>
       </c>
       <c r="D12" s="13">
         <v>8.2334482352941176</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="14">
@@ -869,13 +968,13 @@
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12">
-        <v>300</v>
+      <c r="C13" s="20">
+        <v>65</v>
       </c>
       <c r="D13" s="13">
         <v>1.9568988266666667</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="14">
@@ -892,13 +991,13 @@
       <c r="B14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="12">
-        <v>180</v>
+      <c r="C14" s="20">
+        <v>106</v>
       </c>
       <c r="D14" s="13">
         <v>9.0723688888888887</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="14">
@@ -916,12 +1015,12 @@
         <v>40</v>
       </c>
       <c r="C15" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15" s="13">
         <v>8.593980000000002</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="14">
@@ -938,13 +1037,13 @@
       <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="12">
-        <v>10</v>
+      <c r="C16" s="20">
+        <v>2</v>
       </c>
       <c r="D16" s="13">
         <v>8.593980000000002</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="14">
@@ -961,13 +1060,13 @@
       <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="12">
-        <v>100</v>
+      <c r="C17" s="20">
+        <v>69</v>
       </c>
       <c r="D17" s="13">
         <v>12.426486000000002</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="14">
@@ -984,13 +1083,13 @@
       <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12">
-        <v>100</v>
+      <c r="C18" s="20">
+        <v>90</v>
       </c>
       <c r="D18" s="13">
         <v>9.8479259999999993</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="14">
@@ -1007,13 +1106,13 @@
       <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="12">
-        <v>108</v>
+      <c r="C19" s="20">
+        <v>23</v>
       </c>
       <c r="D19" s="13">
         <v>5.8345080000000005</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="14">
@@ -1030,13 +1129,13 @@
       <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="12">
-        <v>108</v>
+      <c r="C20" s="20">
+        <v>42</v>
       </c>
       <c r="D20" s="13">
         <v>5.8345080000000005</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="14">
@@ -1054,12 +1153,12 @@
         <v>27</v>
       </c>
       <c r="C21" s="12">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D21" s="13">
         <v>6.6676166666666656</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="14">
@@ -1076,13 +1175,13 @@
       <c r="B22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="12">
-        <v>250</v>
+      <c r="C22" s="20">
+        <v>27</v>
       </c>
       <c r="D22" s="13">
         <v>3.6335799999999998</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="14">
@@ -1099,13 +1198,13 @@
       <c r="B23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="12">
-        <v>20</v>
+      <c r="C23" s="20">
+        <v>3</v>
       </c>
       <c r="D23" s="13">
         <v>3.135732</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="14">
@@ -1122,13 +1221,13 @@
       <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="12">
-        <v>1620</v>
+      <c r="C24" s="20">
+        <v>265</v>
       </c>
       <c r="D24" s="13">
         <v>0.81687811358024687</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="14">
@@ -1146,12 +1245,12 @@
         <v>31</v>
       </c>
       <c r="C25" s="12">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="D25" s="13">
         <v>11.367684430693069</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="14">
@@ -1169,12 +1268,12 @@
         <v>32</v>
       </c>
       <c r="C26" s="12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D26" s="13">
         <v>13.7036528</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="14">
@@ -1192,12 +1291,12 @@
         <v>33</v>
       </c>
       <c r="C27" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27" s="13">
         <v>13.927280000000001</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -1215,12 +1314,12 @@
         <v>34</v>
       </c>
       <c r="C28" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D28" s="13">
         <v>1.2888645824</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="14" t="s">
@@ -1238,12 +1337,12 @@
         <v>35</v>
       </c>
       <c r="C29" s="12">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D29" s="13">
         <v>1.7925992800000001</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="14">
@@ -1254,142 +1353,769 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="20">
+        <v>124</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="14">
+        <v>250601000026</v>
+      </c>
+      <c r="G30" s="15">
+        <v>45833</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12">
+        <v>304</v>
+      </c>
+      <c r="D31" s="13">
+        <v>10.9201946875</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="14">
+        <v>251001000001</v>
+      </c>
+      <c r="G31" s="15">
+        <v>45955</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="8"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="8"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="8"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="8"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="8"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="8"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="8"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="8"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="8"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="8"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="8"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="8"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="8"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="8"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="8"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="8"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="8"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="8"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="8"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="8"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="8"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="8"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="8"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="8"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="8"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="8"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="8"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="8"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="8"/>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="8"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="8"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="A32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="12">
+        <v>96</v>
+      </c>
+      <c r="D32" s="13">
+        <v>52.381576101910831</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="14">
+        <v>251001000002</v>
+      </c>
+      <c r="G32" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="12">
+        <v>12</v>
+      </c>
+      <c r="D33" s="13">
+        <v>52.381576101910831</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="14">
+        <v>251001000003</v>
+      </c>
+      <c r="G33" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="12">
+        <v>180</v>
+      </c>
+      <c r="D34" s="18">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="14">
+        <v>251001000004</v>
+      </c>
+      <c r="G34" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="12">
+        <v>102</v>
+      </c>
+      <c r="D35" s="18">
+        <v>14.3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="14">
+        <v>251001000005</v>
+      </c>
+      <c r="G35" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="12">
+        <v>203</v>
+      </c>
+      <c r="D36" s="18">
+        <v>14.3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="14">
+        <v>251001000006</v>
+      </c>
+      <c r="G36" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>600</v>
+      </c>
+      <c r="D37" s="18">
+        <v>6</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="14">
+        <v>251001000008</v>
+      </c>
+      <c r="G37" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1400</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="14">
+        <v>251001000009</v>
+      </c>
+      <c r="G38" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="12">
+        <v>600</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="14">
+        <v>251001000010</v>
+      </c>
+      <c r="G39" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="12">
+        <v>234</v>
+      </c>
+      <c r="D40" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="14">
+        <v>251001000020</v>
+      </c>
+      <c r="G40" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="12">
+        <v>400</v>
+      </c>
+      <c r="D41" s="18">
+        <v>11.4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="14">
+        <v>251001000024</v>
+      </c>
+      <c r="G41" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="12">
+        <v>200</v>
+      </c>
+      <c r="D42" s="18">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="14">
+        <v>251001000027</v>
+      </c>
+      <c r="G42" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="12">
+        <v>100</v>
+      </c>
+      <c r="D43" s="18">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="14">
+        <v>251001000028</v>
+      </c>
+      <c r="G43" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="12">
+        <v>300</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="14">
+        <v>251001000032</v>
+      </c>
+      <c r="G44" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="12">
+        <v>250</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="14">
+        <v>251001000029</v>
+      </c>
+      <c r="G45" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="12">
+        <v>144</v>
+      </c>
+      <c r="D46" s="18">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="14">
+        <v>251001000030</v>
+      </c>
+      <c r="G46" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="12">
+        <v>60</v>
+      </c>
+      <c r="D47" s="18">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="14">
+        <v>251001000031</v>
+      </c>
+      <c r="G47" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="12">
+        <v>152</v>
+      </c>
+      <c r="D48" s="18">
+        <v>26</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="14">
+        <v>251001000033</v>
+      </c>
+      <c r="G48" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="12">
+        <v>104</v>
+      </c>
+      <c r="D49" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="14">
+        <v>251001000034</v>
+      </c>
+      <c r="G49" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="12">
+        <v>52</v>
+      </c>
+      <c r="D50" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="14">
+        <v>251001000035</v>
+      </c>
+      <c r="G50" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="14">
+        <v>251001000036</v>
+      </c>
+      <c r="G51" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="12">
+        <v>200</v>
+      </c>
+      <c r="D52" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="14">
+        <v>251001000037</v>
+      </c>
+      <c r="G52" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="12">
+        <v>30</v>
+      </c>
+      <c r="D53" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="14">
+        <v>251001000038</v>
+      </c>
+      <c r="G53" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="12">
+        <v>40</v>
+      </c>
+      <c r="D54" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="14">
+        <v>251001000039</v>
+      </c>
+      <c r="G54" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="12">
+        <v>40</v>
+      </c>
+      <c r="D55" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="14">
+        <v>251001000040</v>
+      </c>
+      <c r="G55" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="12">
+        <v>40</v>
+      </c>
+      <c r="D56" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="14">
+        <v>251001000041</v>
+      </c>
+      <c r="G56" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="12">
+        <v>600</v>
+      </c>
+      <c r="D57" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="14">
+        <v>251001000042</v>
+      </c>
+      <c r="G57" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="12">
+        <v>600</v>
+      </c>
+      <c r="D58" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="14">
+        <v>251001000043</v>
+      </c>
+      <c r="G58" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="12">
+        <v>600</v>
+      </c>
+      <c r="D59" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="14">
+        <v>251001000044</v>
+      </c>
+      <c r="G59" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="12">
+        <v>600</v>
+      </c>
+      <c r="D60" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="14">
+        <v>251001000045</v>
+      </c>
+      <c r="G60" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="12">
+        <v>104</v>
+      </c>
+      <c r="D61" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="14">
+        <v>251001000046</v>
+      </c>
+      <c r="G61" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="12">
+        <v>500</v>
+      </c>
+      <c r="D62" s="18">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="14">
+        <v>251001000047</v>
+      </c>
+      <c r="G62" s="15">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="B63" s="8"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="1:7">
       <c r="B64" s="8"/>
       <c r="F64" s="9"/>
     </row>
@@ -75751,6 +76477,7 @@
     </row>
     <row r="18654" spans="2:6">
       <c r="B18654" s="8"/>
+      <c r="F18654" s="9"/>
     </row>
     <row r="18655" spans="2:6">
       <c r="B18655" s="8"/>
@@ -76042,6 +76769,9 @@
     </row>
     <row r="18751" spans="2:2">
       <c r="B18751" s="8"/>
+    </row>
+    <row r="18752" spans="2:2">
+      <c r="B18752" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New Management/Purchase Price.xlsx
+++ b/New Management/Purchase Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5128f11f6d6a2fd4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{553BD805-9887-4E6C-87D0-2391D0924D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{553BD805-9887-4E6C-87D0-2391D0924D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0618A60A-F2EC-4870-B407-3DE11843F69F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="2475" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,12 +257,19 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,59 +340,62 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,7 +680,7 @@
   <dimension ref="A1:G18752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1218,8 +1228,8 @@
       <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>44</v>
+      <c r="B24" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C24" s="20">
         <v>265</v>

--- a/New Management/Purchase Price.xlsx
+++ b/New Management/Purchase Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5128f11f6d6a2fd4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{553BD805-9887-4E6C-87D0-2391D0924D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0618A60A-F2EC-4870-B407-3DE11843F69F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{553BD805-9887-4E6C-87D0-2391D0924D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA750290-DE2D-4CBE-A889-A6851A21C29C}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="2475" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,6 +419,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -679,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18752"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1439,7 +1443,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D33" s="13">
         <v>52.381576101910831</v>
@@ -1853,7 +1857,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D51" s="18">
         <v>0.16</v>
